--- a/week4_work&test/week4.xlsx
+++ b/week4_work&test/week4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pandas/Desktop/DataStructure_FromUni/week4_work&amp;test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A33DA3-7591-044D-B86E-8C6A37D76EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCFE7C1-B1EE-B44F-8B4F-E5298B9722F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{34D6E34B-CDD2-8F4D-852C-6A5B6ACEA872}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{34D6E34B-CDD2-8F4D-852C-6A5B6ACEA872}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +417,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352A211F-6185-5647-BB35-F55269771B10}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.7000000000000598E-5</v>
+      </c>
+      <c r="C2">
+        <v>4.1799999999999802E-4</v>
+      </c>
+      <c r="D2">
+        <v>5.0800000000000096E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="C3">
+        <v>1.6389999999999901E-3</v>
+      </c>
+      <c r="D3">
+        <v>2.0239999999999902E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="C4">
+        <v>6.7070000000000003E-3</v>
+      </c>
+      <c r="D4">
+        <v>7.9690000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>800</v>
+      </c>
+      <c r="B5">
+        <v>1.0449999999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>2.94399999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.4268999999999897E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1600</v>
+      </c>
+      <c r="B6">
+        <v>2.4219999999999901E-3</v>
+      </c>
+      <c r="C6">
+        <v>0.120155</v>
+      </c>
+      <c r="D6">
+        <v>0.14329700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>24000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>